--- a/csp_course_rotations.xlsx
+++ b/csp_course_rotations.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottcarrington/Desktop/AI/MP3-College-Scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D94816-E707-F643-8681-A158F638F6F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B1078-B26A-474E-8C7C-EF7B429F40BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25780" yWindow="2340" windowWidth="25600" windowHeight="14900" xr2:uid="{CD2308FA-6A06-1D48-B40D-6494088EB855}"/>
+    <workbookView xWindow="53060" yWindow="3300" windowWidth="25600" windowHeight="14900" activeTab="1" xr2:uid="{CD2308FA-6A06-1D48-B40D-6494088EB855}"/>
   </bookViews>
   <sheets>
     <sheet name="course_rotations" sheetId="1" r:id="rId1"/>
-    <sheet name="prereqs" sheetId="2" r:id="rId2"/>
+    <sheet name="schedule" sheetId="3" r:id="rId2"/>
+    <sheet name="prereqs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
   <si>
     <t>CPSC-50100</t>
   </si>
@@ -104,6 +105,48 @@
   </si>
   <si>
     <t>capstone</t>
+  </si>
+  <si>
+    <t>Year 1 Fall II</t>
+  </si>
+  <si>
+    <t>Year 2 Spring I</t>
+  </si>
+  <si>
+    <t>Year 2 Spring II</t>
+  </si>
+  <si>
+    <t>Year 2 Fall I</t>
+  </si>
+  <si>
+    <t>Year 2 Fall II</t>
+  </si>
+  <si>
+    <t>Year 2 Summer I</t>
+  </si>
+  <si>
+    <t>Year 2 Summer II</t>
+  </si>
+  <si>
+    <t>Year 3 Spring I</t>
+  </si>
+  <si>
+    <t>Year 3 Spring II</t>
+  </si>
+  <si>
+    <t>Year 3 Fall I</t>
+  </si>
+  <si>
+    <t>Year 3 Fall II</t>
+  </si>
+  <si>
+    <t>Not Taken</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -490,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E50D480-F901-B547-8C6B-03EE5B95BB51}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -999,6 +1042,168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30044A1A-4CC9-544A-BB78-4B0B2383B233}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD43A1E0-A219-3A44-9ECC-205CE11146B0}">
   <dimension ref="A1:B23"/>
   <sheetViews>

--- a/csp_course_rotations.xlsx
+++ b/csp_course_rotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottcarrington/Desktop/AI/MP3-College-Scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B1078-B26A-474E-8C7C-EF7B429F40BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1B0A28-6BB9-414C-8A76-A9FD7261F2E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53060" yWindow="3300" windowWidth="25600" windowHeight="14900" activeTab="1" xr2:uid="{CD2308FA-6A06-1D48-B40D-6494088EB855}"/>
+    <workbookView xWindow="51200" yWindow="3300" windowWidth="25600" windowHeight="14900" xr2:uid="{CD2308FA-6A06-1D48-B40D-6494088EB855}"/>
   </bookViews>
   <sheets>
     <sheet name="course_rotations" sheetId="1" r:id="rId1"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E50D480-F901-B547-8C6B-03EE5B95BB51}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30044A1A-4CC9-544A-BB78-4B0B2383B233}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
